--- a/data/trans_orig/P79A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>9268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3138</v>
+        <v>2686</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16453</v>
+        <v>15630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4227376133152823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1431458249680819</v>
+        <v>0.1225306540145518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7504504363178465</v>
+        <v>0.7128969762705998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -775,19 +775,19 @@
         <v>13598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6383</v>
+        <v>5270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20695</v>
+        <v>20981</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5179366414731803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2431139218921055</v>
+        <v>0.2007361594364288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7882797110232397</v>
+        <v>0.7991570297697403</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>12656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5471</v>
+        <v>6294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18786</v>
+        <v>19238</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5772623866847176</v>
+        <v>0.5772623866847177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2495495636821534</v>
+        <v>0.2871030237294002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8568541750319181</v>
+        <v>0.8774693459854482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -838,19 +838,19 @@
         <v>12656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5559</v>
+        <v>5273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19871</v>
+        <v>20984</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4820633585268196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2117202889767607</v>
+        <v>0.2008429702302597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7568860781078947</v>
+        <v>0.799263840563571</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +942,7 @@
         <v>8643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>11527</v>
@@ -951,7 +951,7 @@
         <v>0.7498018617605225</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2758413356544628</v>
+        <v>0.2784556575648108</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -963,16 +963,16 @@
         <v>17859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14769</v>
+        <v>14096</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>18745</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9527505339522165</v>
+        <v>0.9527505339522168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7879101068162655</v>
+        <v>0.7519765481462495</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -984,19 +984,19 @@
         <v>26503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20633</v>
+        <v>19409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29399</v>
+        <v>29350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8754718574906011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6815780622552347</v>
+        <v>0.6411381694960785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9711380670257718</v>
+        <v>0.9695101893670723</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8347</v>
+        <v>8314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2501981382394774</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7241586643455372</v>
+        <v>0.7212299330892589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3976</v>
+        <v>4649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04724946604778332</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2120898931837343</v>
+        <v>0.2480234518537508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1055,19 +1055,19 @@
         <v>3770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>874</v>
+        <v>923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9640</v>
+        <v>10864</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.124528142509399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02886193297422828</v>
+        <v>0.03048981063292788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3184219377447654</v>
+        <v>0.3588618305039222</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>19262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13123</v>
+        <v>13200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23734</v>
+        <v>23663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6815028032514312</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4643003540900988</v>
+        <v>0.4670367222793489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8397132854455354</v>
+        <v>0.837202044725051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1180,19 +1180,19 @@
         <v>11018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7679</v>
+        <v>6941</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13943</v>
+        <v>13929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6817280306149185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4751460823885157</v>
+        <v>0.4294674292206688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8627057839055882</v>
+        <v>0.8618548928341124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1201,19 +1201,19 @@
         <v>30280</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24018</v>
+        <v>23883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36054</v>
+        <v>35658</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6815847402537069</v>
+        <v>0.6815847402537067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5406400957643215</v>
+        <v>0.5375969686067442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8115415252471776</v>
+        <v>0.8026272083995447</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>9002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4530</v>
+        <v>4601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15141</v>
+        <v>15064</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3184971967485689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1602867145544647</v>
+        <v>0.1627979552749492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.535699645909901</v>
+        <v>0.5329632777206511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1251,19 +1251,19 @@
         <v>5144</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2219</v>
+        <v>2233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8483</v>
+        <v>9221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3182719693850815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1372942160944117</v>
+        <v>0.1381451071658877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5248539176114841</v>
+        <v>0.5705325707793313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1272,19 +1272,19 @@
         <v>14146</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8372</v>
+        <v>8768</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20408</v>
+        <v>20543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3184152597462933</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1884584747528225</v>
+        <v>0.1973727916004565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4593599042356786</v>
+        <v>0.4624030313932558</v>
       </c>
     </row>
     <row r="12">
@@ -1376,16 +1376,16 @@
         <v>11016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7799</v>
+        <v>8035</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>11940</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9226355588578097</v>
+        <v>0.9226355588578098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6531575235538158</v>
+        <v>0.6729375087320593</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1397,19 +1397,19 @@
         <v>9434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6315</v>
+        <v>5986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12293</v>
+        <v>12172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6269899254129327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4196813039932805</v>
+        <v>0.3978608292386517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8170514806409349</v>
+        <v>0.8090171858135551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1418,19 +1418,19 @@
         <v>20450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15691</v>
+        <v>15338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23652</v>
+        <v>23735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7577949156942542</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5814389822449993</v>
+        <v>0.5683508667283821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8764416211730031</v>
+        <v>0.8795438724229451</v>
       </c>
     </row>
     <row r="14">
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4141</v>
+        <v>3905</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07736444114219031</v>
+        <v>0.07736444114219032</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3468424764461873</v>
+        <v>0.3270624912679407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1468,19 +1468,19 @@
         <v>5612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2753</v>
+        <v>2874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8731</v>
+        <v>9060</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3730100745870672</v>
+        <v>0.3730100745870671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1829485193590651</v>
+        <v>0.1909828141864447</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5803186960067195</v>
+        <v>0.6021391707613483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1489,19 +1489,19 @@
         <v>6536</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3334</v>
+        <v>3251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11295</v>
+        <v>11648</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.242205084305746</v>
+        <v>0.2422050843057459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1235583788269969</v>
+        <v>0.1204561275770549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4185610177550005</v>
+        <v>0.431649133271618</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6065</v>
+        <v>6033</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5505106152444804</v>
+        <v>0.5505106152444806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385785109600486</v>
+        <v>0.1472047776559878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8751607804254502</v>
+        <v>0.8705753015870408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1614,19 +1614,19 @@
         <v>5064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2888</v>
+        <v>2515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6421</v>
+        <v>6423</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7184740873435382</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4097086916881072</v>
+        <v>0.3568188280608362</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9110089961560343</v>
+        <v>0.9113355715664483</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1635,19 +1635,19 @@
         <v>8879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5329</v>
+        <v>5177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11942</v>
+        <v>11844</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6352065351147864</v>
+        <v>0.6352065351147865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3812588230639385</v>
+        <v>0.3704014751126592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8543452377498074</v>
+        <v>0.8473382688957256</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5970</v>
+        <v>5913</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4494893847555195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1242721616936635</v>
+        <v>0.1299209773001566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8614214890399514</v>
+        <v>0.8532548573059955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1685,19 +1685,19 @@
         <v>1984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4160</v>
+        <v>4533</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2815259126564618</v>
+        <v>0.2815259126564619</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08899100384396574</v>
+        <v>0.08866442843355153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5902913083118926</v>
+        <v>0.6431811719391638</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1706,19 +1706,19 @@
         <v>5099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2036</v>
+        <v>2134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8649</v>
+        <v>8801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3647934648852135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1456547622501924</v>
+        <v>0.1526617311042742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6187411769360612</v>
+        <v>0.6295985248873408</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +1992,7 @@
         <v>2222</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>670</v>
+        <v>741</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>2607</v>
@@ -2001,7 +2001,7 @@
         <v>0.8522566521851755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2568407203326849</v>
+        <v>0.2841464937309796</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2013,16 +2013,16 @@
         <v>2222</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>3649</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6088582216060731</v>
+        <v>0.6088582216060732</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1356447847361789</v>
+        <v>0.1381807565368265</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1937</v>
+        <v>1866</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1477433478148245</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7431592796673151</v>
+        <v>0.7158535062690204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3134</v>
+        <v>3191</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3911417783939268</v>
+        <v>0.3911417783939269</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8588249646160377</v>
+        <v>0.8746108904284053</v>
       </c>
     </row>
     <row r="24">
@@ -2180,19 +2180,19 @@
         <v>48431</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39295</v>
+        <v>39933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55019</v>
+        <v>55357</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7405637963648647</v>
+        <v>0.7405637963648646</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6008553891463776</v>
+        <v>0.6106134999653916</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.841299306443912</v>
+        <v>0.8464627812411638</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2201,19 +2201,19 @@
         <v>57488</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45593</v>
+        <v>46634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66349</v>
+        <v>66147</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6831159730803701</v>
+        <v>0.6831159730803698</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5417748955117776</v>
+        <v>0.5541382881047628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7884200031595532</v>
+        <v>0.7860167445398134</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2222,19 +2222,19 @@
         <v>105918</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90778</v>
+        <v>92261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116379</v>
+        <v>117817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7082372794859382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6069984283283187</v>
+        <v>0.6169141318415606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7781867596031098</v>
+        <v>0.7878024720754364</v>
       </c>
     </row>
     <row r="26">
@@ -2251,19 +2251,19 @@
         <v>16967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10379</v>
+        <v>10041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26103</v>
+        <v>25465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2594362036351355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.158700693556088</v>
+        <v>0.1535372187588361</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.399144610853623</v>
+        <v>0.3893865000346081</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2272,19 +2272,19 @@
         <v>26667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17806</v>
+        <v>18008</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38562</v>
+        <v>37521</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3168840269196301</v>
+        <v>0.31688402691963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2115799968404467</v>
+        <v>0.2139832554601866</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4582251044882228</v>
+        <v>0.4458617118952369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -2293,19 +2293,19 @@
         <v>43634</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33173</v>
+        <v>31735</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58774</v>
+        <v>57291</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2917627205140618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2218132403968901</v>
+        <v>0.2121975279245635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.393001571671681</v>
+        <v>0.3830858681584395</v>
       </c>
     </row>
     <row r="27">
